--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="153">
   <si>
     <t>土地坐落</t>
   </si>
@@ -216,6 +216,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>太举洋電線電纜股份有限 公司</t>
   </si>
   <si>
@@ -256,6 +265,9 @@
   </si>
   <si>
     <t>20，000</t>
+  </si>
+  <si>
+    <t>2011-12-21</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1566,13 +1578,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1591,13 +1603,22 @@
       <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -1614,13 +1635,22 @@
       <c r="G2" s="2">
         <v>2470</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -1637,13 +1667,22 @@
       <c r="G3" s="2">
         <v>142530</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -1660,13 +1699,22 @@
       <c r="G4" s="2">
         <v>85000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -1683,13 +1731,22 @@
       <c r="G5" s="2">
         <v>56700</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -1706,13 +1763,22 @@
       <c r="G6" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -1729,16 +1795,25 @@
       <c r="G7" s="2">
         <v>10770</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2">
         <v>487</v>
@@ -1752,13 +1827,22 @@
       <c r="G8" s="2">
         <v>4870</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -1775,13 +1859,22 @@
       <c r="G9" s="2">
         <v>131320</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1798,13 +1891,22 @@
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1821,13 +1923,22 @@
       <c r="G11" s="2">
         <v>27580</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1844,19 +1955,28 @@
       <c r="G12" s="2">
         <v>110000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -1866,6 +1986,15 @@
       </c>
       <c r="G13" s="2">
         <v>200000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
@@ -1883,22 +2012,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -1909,13 +2038,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>28105.7</v>
@@ -1935,13 +2064,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>4913</v>
@@ -1961,13 +2090,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>1665.1</v>
@@ -1987,13 +2116,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2013,13 +2142,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2039,13 +2168,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
         <v>1305.8</v>
@@ -2065,13 +2194,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2">
         <v>1235.125</v>
@@ -2091,13 +2220,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2">
         <v>166.74</v>
@@ -2117,13 +2246,13 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2">
         <v>1282.41</v>
@@ -2143,13 +2272,13 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2">
         <v>29.2</v>
@@ -2158,7 +2287,7 @@
         <v>105.64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H11" s="2">
         <v>123387.52</v>
@@ -2169,13 +2298,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2">
         <v>227.33</v>
@@ -2195,13 +2324,13 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2">
         <v>1278.65</v>
@@ -2221,13 +2350,13 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2">
         <v>457.91</v>
@@ -2247,13 +2376,13 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2">
         <v>48.22</v>
@@ -2283,19 +2412,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -2306,7 +2435,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2329,7 +2458,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -2352,7 +2481,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -2367,7 +2496,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2375,7 +2504,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -2398,10 +2527,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2421,7 +2550,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -2444,7 +2573,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -2467,7 +2596,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2490,7 +2619,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
@@ -2513,14 +2642,14 @@
         <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2530,22 +2659,22 @@
         <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2563,16 +2692,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2580,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2597,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2614,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2631,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2648,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2665,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2682,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2699,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2716,16 +2845,16 @@
         <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2733,16 +2862,16 @@
         <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2750,16 +2879,16 @@
         <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2767,16 +2896,16 @@
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2784,16 +2913,16 @@
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="155">
   <si>
     <t>土地坐落</t>
   </si>
@@ -216,6 +216,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -225,7 +228,7 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>太举洋電線電纜股份有限 公司</t>
+    <t>太举洋電線電纜股份有限公司</t>
   </si>
   <si>
     <t>華麥電子股份有限公司</t>
@@ -240,7 +243,7 @@
     <t>友達光電股份有限公司</t>
   </si>
   <si>
-    <t>春雨開發股份有限公司(原 正華）</t>
+    <t>春雨開發股份有限公司(原正華）</t>
   </si>
   <si>
     <t>茂德科技股份有限公司.</t>
@@ -249,7 +252,7 @@
     <t>金橋科技股份有限公司</t>
   </si>
   <si>
-    <t>太平洋電線電纜股份有限 公司</t>
+    <t>太平洋電線電纜股份有限公司</t>
   </si>
   <si>
     <t>中華映管股份有限公司</t>
@@ -258,13 +261,16 @@
     <t>新世紀光電股份有限公司</t>
   </si>
   <si>
-    <t>大成長城企業股份有限公 司</t>
+    <t>大成長城企業股份有限公司</t>
   </si>
   <si>
     <t>寅志雄</t>
   </si>
   <si>
-    <t>20，000</t>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-12-21</t>
@@ -1578,13 +1584,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1612,13 +1618,16 @@
       <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -1636,21 +1645,24 @@
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="2">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -1668,21 +1680,24 @@
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -1700,21 +1715,24 @@
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="2">
+        <v>83</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -1732,21 +1750,24 @@
         <v>56700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="2">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -1764,21 +1785,24 @@
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="2">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -1796,24 +1820,27 @@
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="2">
+        <v>83</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2">
         <v>487</v>
@@ -1828,21 +1855,24 @@
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="2">
+        <v>83</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -1860,21 +1890,24 @@
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2">
+        <v>83</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1892,21 +1925,24 @@
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="2">
+        <v>83</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1924,21 +1960,24 @@
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="2">
+        <v>83</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1956,27 +1995,30 @@
         <v>110000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="2">
+        <v>83</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -1988,12 +2030,15 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="2">
+        <v>83</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="2">
         <v>1366</v>
       </c>
     </row>
@@ -2012,22 +2057,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -2038,13 +2083,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>28105.7</v>
@@ -2064,13 +2109,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>4913</v>
@@ -2090,13 +2135,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>1665.1</v>
@@ -2116,13 +2161,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2142,13 +2187,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2168,13 +2213,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2">
         <v>1305.8</v>
@@ -2194,13 +2239,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2">
         <v>1235.125</v>
@@ -2220,13 +2265,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2">
         <v>166.74</v>
@@ -2246,13 +2291,13 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2">
         <v>1282.41</v>
@@ -2272,13 +2317,13 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2">
         <v>29.2</v>
@@ -2287,7 +2332,7 @@
         <v>105.64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H11" s="2">
         <v>123387.52</v>
@@ -2298,13 +2343,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2">
         <v>227.33</v>
@@ -2324,13 +2369,13 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2">
         <v>1278.65</v>
@@ -2350,13 +2395,13 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2">
         <v>457.91</v>
@@ -2376,13 +2421,13 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2">
         <v>48.22</v>
@@ -2412,19 +2457,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -2435,7 +2480,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2458,7 +2503,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -2481,7 +2526,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -2496,7 +2541,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2504,7 +2549,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -2527,10 +2572,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2550,7 +2595,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -2573,7 +2618,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -2596,7 +2641,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2619,7 +2664,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
@@ -2642,14 +2687,14 @@
         <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2659,22 +2704,22 @@
         <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2692,16 +2737,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2709,16 +2754,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2726,16 +2771,16 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2743,16 +2788,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2760,16 +2805,16 @@
         <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2777,16 +2822,16 @@
         <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2794,16 +2839,16 @@
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2811,16 +2856,16 @@
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2828,16 +2873,16 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2845,16 +2890,16 @@
         <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2862,16 +2907,16 @@
         <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2879,16 +2924,16 @@
         <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2896,16 +2941,16 @@
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2913,16 +2958,16 @@
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="160">
   <si>
     <t>土地坐落</t>
   </si>
@@ -219,6 +219,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -228,6 +231,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>太举洋電線電纜股份有限公司</t>
   </si>
   <si>
@@ -273,7 +282,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-12-21</t>
+  </si>
+  <si>
+    <t>tmp51f51</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1584,13 +1599,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1621,13 +1636,22 @@
       <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -1645,24 +1669,33 @@
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="2">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -1680,24 +1713,33 @@
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="2">
+        <v>87</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -1715,24 +1757,33 @@
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -1750,24 +1801,33 @@
         <v>56700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="2">
+        <v>87</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -1785,24 +1845,33 @@
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="2">
+        <v>87</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -1820,27 +1889,36 @@
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="2">
+        <v>87</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2">
         <v>487</v>
@@ -1855,24 +1933,33 @@
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="2">
+        <v>87</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -1890,24 +1977,33 @@
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="2">
+        <v>87</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1925,24 +2021,33 @@
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="2">
+        <v>87</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1960,24 +2065,33 @@
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="2">
+        <v>87</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1995,30 +2109,39 @@
         <v>110000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="2">
+        <v>87</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2">
         <v>1366</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -2030,16 +2153,25 @@
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="2">
+        <v>87</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2">
         <v>1366</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2057,22 +2189,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -2083,13 +2215,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>28105.7</v>
@@ -2109,13 +2241,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2">
         <v>4913</v>
@@ -2135,13 +2267,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2">
         <v>1665.1</v>
@@ -2161,13 +2293,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2187,13 +2319,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2213,13 +2345,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2">
         <v>1305.8</v>
@@ -2239,13 +2371,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2">
         <v>1235.125</v>
@@ -2265,13 +2397,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2">
         <v>166.74</v>
@@ -2291,13 +2423,13 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2">
         <v>1282.41</v>
@@ -2317,13 +2449,13 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2">
         <v>29.2</v>
@@ -2332,7 +2464,7 @@
         <v>105.64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H11" s="2">
         <v>123387.52</v>
@@ -2343,13 +2475,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2">
         <v>227.33</v>
@@ -2369,13 +2501,13 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2">
         <v>1278.65</v>
@@ -2395,13 +2527,13 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2">
         <v>457.91</v>
@@ -2421,13 +2553,13 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2">
         <v>48.22</v>
@@ -2457,19 +2589,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>30</v>
@@ -2480,7 +2612,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2503,7 +2635,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -2526,7 +2658,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -2541,7 +2673,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2549,7 +2681,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
@@ -2572,10 +2704,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2595,7 +2727,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -2618,7 +2750,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -2641,7 +2773,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2664,7 +2796,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>55</v>
@@ -2687,14 +2819,14 @@
         <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2704,22 +2836,22 @@
         <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2737,16 +2869,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2754,16 +2886,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2771,16 +2903,16 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2788,16 +2920,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2805,16 +2937,16 @@
         <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2822,16 +2954,16 @@
         <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2839,16 +2971,16 @@
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2856,16 +2988,16 @@
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2873,16 +3005,16 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2890,16 +3022,16 @@
         <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2907,16 +3039,16 @@
         <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2924,16 +3056,16 @@
         <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2941,16 +3073,16 @@
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2958,16 +3090,16 @@
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -22,9 +22,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="160">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="160">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市樹林區山佳段05670000地號</t>
+  </si>
+  <si>
+    <t>10000分之162</t>
+  </si>
+  <si>
+    <t>洪佳君</t>
+  </si>
+  <si>
+    <t>97年04月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-21</t>
+  </si>
+  <si>
+    <t>黃志雄</t>
+  </si>
+  <si>
+    <t>tmp51f51</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,25 +117,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市樹林區山佳段0567-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 162</t>
-  </si>
-  <si>
-    <t>洪佳君</t>
-  </si>
-  <si>
-    <t>97年04月 09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市樹林區山佳段01069-000 建號</t>
+    <t>新北市樹林區山佳段01069000建號</t>
   </si>
   <si>
     <t>新北市樹林區中山路</t>
@@ -72,7 +126,7 @@
     <t>全部</t>
   </si>
   <si>
-    <t>100 年 01 月14曰</t>
+    <t>100年01月14曰</t>
   </si>
   <si>
     <t>繼承</t>
@@ -93,10 +147,10 @@
     <t>中華</t>
   </si>
   <si>
-    <t>97年06月 26曰</t>
-  </si>
-  <si>
-    <t>99年09月 17日</t>
+    <t>97年06月26曰</t>
+  </si>
+  <si>
+    <t>99年09月17日</t>
   </si>
   <si>
     <t>塑式</t>
@@ -108,10 +162,10 @@
     <t>國籍標示及編號</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣總額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -123,19 +177,13 @@
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋分 行</t>
+    <t>中國信託商業銀行板橋分行</t>
   </si>
   <si>
     <t>花旗（台灣）銀行樹林分行</t>
   </si>
   <si>
-    <t>樹林鎮前街郵局(第8 5支 局）</t>
+    <t>樹林鎮前街郵局(第85支局）</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -144,19 +192,16 @@
     <t>台北縣樹林市農會信用部</t>
   </si>
   <si>
-    <t>台北縣樹林市農會信用部 復興分部</t>
+    <t>台北縣樹林市農會信用部復興分部</t>
   </si>
   <si>
     <t>台新國際商業銀行營業部</t>
   </si>
   <si>
-    <t>樹林大同郵局（•第9 0支 局）</t>
-  </si>
-  <si>
-    <t>樹林大同郵局（第9 0支 局）</t>
-  </si>
-  <si>
-    <t>樹林大同郵局（第9 0'变 局）</t>
+    <t>樹林大同郵局（第90支局）</t>
+  </si>
+  <si>
+    <t>樹林大同郵局（第90变局）</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -186,24 +231,12 @@
     <t>美金</t>
   </si>
   <si>
-    <t>美金'</t>
-  </si>
-  <si>
-    <t>黃志雄</t>
-  </si>
-  <si>
     <t>黃〇誼</t>
   </si>
   <si>
     <t>黃〇瀚</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -216,27 +249,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>太举洋電線電纜股份有限公司</t>
   </si>
   <si>
@@ -282,15 +294,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-21</t>
-  </si>
-  <si>
-    <t>tmp51f51</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -309,7 +312,7 @@
     <t>德盛錄能趨勢</t>
   </si>
   <si>
-    <t>寶來卓越5 0</t>
+    <t>寶來卓越50</t>
   </si>
   <si>
     <t>雷曼兄弟</t>
@@ -318,30 +321,27 @@
     <t>坦全一穩定月收</t>
   </si>
   <si>
-    <t>富達新興市場基 金</t>
-  </si>
-  <si>
-    <t>貝萊德新能源美 元</t>
-  </si>
-  <si>
-    <t>貝萊德新興歐洲 歐元</t>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>貝萊德新能源美元</t>
+  </si>
+  <si>
+    <t>貝萊德新興歐洲歐元</t>
   </si>
   <si>
     <t>天達策略股票</t>
   </si>
   <si>
-    <t>8220174中國信 託商業銀行板 橋分行</t>
-  </si>
-  <si>
-    <t>8220174中國信 託商業銀行板</t>
+    <t>8220174中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>8220174中國信託商業銀行板</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>單位'數</t>
-  </si>
-  <si>
     <t>價額</t>
   </si>
   <si>
@@ -372,37 +372,37 @@
     <t>連邦</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及多</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
+    <t>(九）珠寶古董字畫及多</t>
+  </si>
+  <si>
+    <t>財產種類</t>
   </si>
   <si>
     <t>頁志雄</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
   </si>
   <si>
-    <t>71,990</t>
+    <t>71990</t>
   </si>
   <si>
     <t>額</t>
   </si>
   <si>
-    <t>保險_公司</t>
+    <t>保險公司</t>
   </si>
   <si>
     <t>保險名稱</t>
@@ -435,19 +435,19 @@
     <t>南山伴我一生變額壽險</t>
   </si>
   <si>
-    <t>南山好吉利21年期還本養 老保險</t>
+    <t>南山好吉利21年期還本養老保險</t>
   </si>
   <si>
     <t>南山新新增額養老保險</t>
   </si>
   <si>
-    <t>中泰人壽金富貴外幣變額年 金保險</t>
+    <t>中泰人壽金富貴外幣變額年金保險</t>
   </si>
   <si>
     <t>世界觀外幣變額萬能壽險</t>
   </si>
   <si>
-    <t>國泰美滿人生3 12終身壽 險</t>
+    <t>國泰美滿人生312終身壽險</t>
   </si>
   <si>
     <t>六年吉利保險</t>
@@ -459,49 +459,49 @@
     <t>新光人壽全意终身還本保險</t>
   </si>
   <si>
-    <t>南山人壽鴻利發還本終身分 紅保險</t>
+    <t>南山人壽鴻利發還本終身分紅保險</t>
   </si>
   <si>
     <t>貝志雄</t>
   </si>
   <si>
-    <t>保險期間：9 4年12月31 曰一16 5年12月31曰 /保險費繳交方式及金額••年 繳6 0 0 0 0</t>
-  </si>
-  <si>
-    <t>保險期間：88年3月15日 —1 0 9年3月1 5日/保 險費缴交方式及金額：年繳 28 9 2 0</t>
-  </si>
-  <si>
-    <t>保險期間：88年3月15曰 —1 0 8年3月1 5日Z保 險費繳交方式及金額：年繳 4 9 3 5 0</t>
-  </si>
-  <si>
-    <t>保險期間：88年3月15日 —1 6 6年3月1 5日Z保 險費繳交方式及金額：年繳 5 18 0 0</t>
-  </si>
-  <si>
-    <t>保險期間：97年12月29 曰一1 7 5年1 2月2 8曰 /保險費繳交方式及金額： 彈性繳20 00 0</t>
-  </si>
-  <si>
-    <t>保險期間：9 6.年4月3日一 177年4月3日/保險費 缴交方式及金額：彈性繳 1 5 0 0 0</t>
-  </si>
-  <si>
-    <t>保險期間：8 4年11月2 2 曰一104年11月22曰 /保險費繳交方式及金額： 半年繳13 9 5 8</t>
-  </si>
-  <si>
-    <t>保險期間：9 4年4月2 0日 —1 0 0年4月2 0曰/保 險費繳交方式及金額： 年繳15 7 8 19</t>
-  </si>
-  <si>
-    <t>保險期間：9 *4年5月1 7日 -100年5月17日/保 險費繳交方式及金額：年繳 2 6 9 117</t>
-  </si>
-  <si>
-    <t>保險期間：9 5年1月2日一 101年1月2日Z保險費 缴交方式及金額：年繳 4749 1</t>
-  </si>
-  <si>
-    <t>保險期間：9 7年12月2 3 曰-終身/保險費繳交方式 及金額：年繳12 1700</t>
-  </si>
-  <si>
-    <t>保險期間：9 7年12月2 3 曰-終身Z保險費繳交方式 及金額：年繳12 5 15 0</t>
-  </si>
-  <si>
-    <t>保險期間：9 8年5月13日 -1 0 4年5月1 3日/保 險費繳交方式及金額：年繳 10 5 8 10 0</t>
+    <t>保險期間：94年12月31曰一165年12月31曰保險費繳交方式及金額年繳60000</t>
+  </si>
+  <si>
+    <t>保險期間：88年3月15日—109年3月15日保險費缴交方式及金額：年繳28920</t>
+  </si>
+  <si>
+    <t>保險期間：88年3月15曰—108年3月15日Z保險費繳交方式及金額：年繳49350</t>
+  </si>
+  <si>
+    <t>保險期間：88年3月15日—166年3月15日Z保險費繳交方式及金額：年繳51800</t>
+  </si>
+  <si>
+    <t>保險期間：97年12月29曰一175年12月28曰保險費繳交方式及金額：彈性繳20000</t>
+  </si>
+  <si>
+    <t>保險期間：96.年4月3日一177年4月3日保險費缴交方式及金額：彈性繳15000</t>
+  </si>
+  <si>
+    <t>保險期間：84年11月22曰一104年11月22曰保險費繳交方式及金額：半年繳13958</t>
+  </si>
+  <si>
+    <t>保險期間：94年4月20日—100年4月20曰保險費繳交方式及金額：年繳157819</t>
+  </si>
+  <si>
+    <t>保險期間：9*4年5月17日100年5月17日保險費繳交方式及金額：年繳269117</t>
+  </si>
+  <si>
+    <t>保險期間：95年1月2日一101年1月2日Z保險費缴交方式及金額：年繳47491</t>
+  </si>
+  <si>
+    <t>保險期間：97年12月23曰終身保險費繳交方式及金額：年繳121700</t>
+  </si>
+  <si>
+    <t>保險期間：97年12月23曰終身Z保險費繳交方式及金額：年繳125150</t>
+  </si>
+  <si>
+    <t>保險期間：98年5月13日104年5月13日保險費繳交方式及金額：年繳1058100</t>
   </si>
 </sst>
 </file>
@@ -860,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,31 +888,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1518.27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>647200</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -930,25 +972,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -956,22 +998,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>109.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>5232800</v>
@@ -982,22 +1024,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>307.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2">
         <v>208700</v>
@@ -1008,22 +1050,22 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>294.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2">
         <v>223400</v>
@@ -1044,22 +1086,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1067,19 +1109,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>505000</v>
@@ -1090,19 +1132,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>1198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>389100</v>
@@ -1123,16 +1165,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1140,16 +1182,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1167,22 +1209,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1190,16 +1232,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1211,16 +1253,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1232,16 +1274,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1253,16 +1295,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1274,16 +1316,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1295,16 +1337,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1316,16 +1358,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1337,16 +1379,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1358,16 +1400,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>100</v>
@@ -1381,16 +1423,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1402,16 +1444,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1423,16 +1465,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1444,16 +1486,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1465,16 +1507,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1486,16 +1528,16 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
         <v>0.36</v>
@@ -1509,16 +1551,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <v>129.18</v>
@@ -1532,16 +1574,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2">
         <v>19013.34</v>
@@ -1555,16 +1597,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1576,16 +1618,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1607,43 +1649,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1651,10 +1693,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>247</v>
@@ -1663,28 +1705,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>1366</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>70</v>
@@ -1695,10 +1737,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>14253</v>
@@ -1707,28 +1749,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2">
         <v>1366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>71</v>
@@ -1739,10 +1781,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>8500</v>
@@ -1751,28 +1793,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2">
         <v>1366</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2">
         <v>72</v>
@@ -1783,10 +1825,10 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>5670</v>
@@ -1795,28 +1837,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>56700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
         <v>1366</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2">
         <v>73</v>
@@ -1827,10 +1869,10 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>40000</v>
@@ -1839,28 +1881,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L6" s="2">
         <v>1366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2">
         <v>74</v>
@@ -1871,10 +1913,10 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>1077</v>
@@ -1883,28 +1925,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <v>1366</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N7" s="2">
         <v>75</v>
@@ -1915,10 +1957,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2">
         <v>487</v>
@@ -1927,28 +1969,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <v>1366</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N8" s="2">
         <v>76</v>
@@ -1959,10 +2001,10 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>13132</v>
@@ -1971,28 +2013,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
         <v>1366</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N9" s="2">
         <v>77</v>
@@ -2003,10 +2045,10 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>102000</v>
@@ -2015,28 +2057,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2">
         <v>1366</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N10" s="2">
         <v>78</v>
@@ -2047,10 +2089,10 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>2758</v>
@@ -2059,28 +2101,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L11" s="2">
         <v>1366</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N11" s="2">
         <v>79</v>
@@ -2091,10 +2133,10 @@
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>11000</v>
@@ -2103,28 +2145,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2">
         <v>110000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2">
         <v>1366</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N12" s="2">
         <v>80</v>
@@ -2135,40 +2177,40 @@
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="L13" s="2">
         <v>1366</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N13" s="2">
         <v>81</v>
@@ -2189,25 +2231,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2215,13 +2257,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>28105.7</v>
@@ -2230,7 +2272,7 @@
         <v>8.49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2">
         <v>238617.39</v>
@@ -2241,13 +2283,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>4913</v>
@@ -2256,7 +2298,7 @@
         <v>60.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2">
         <v>297236.5</v>
@@ -2267,13 +2309,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2">
         <v>1665.1</v>
@@ -2282,7 +2324,7 @@
         <v>60.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2">
         <v>100738.55</v>
@@ -2293,13 +2335,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2308,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2">
         <v>15000</v>
@@ -2319,13 +2361,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2334,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2">
         <v>15000</v>
@@ -2345,13 +2387,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2">
         <v>1305.8</v>
@@ -2360,7 +2402,7 @@
         <v>11.39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2">
         <v>446340.59</v>
@@ -2371,13 +2413,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2">
         <v>1235.125</v>
@@ -2386,7 +2428,7 @@
         <v>11.39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
         <v>422182.89</v>
@@ -2397,13 +2439,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2">
         <v>166.74</v>
@@ -2412,7 +2454,7 @@
         <v>21.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H9" s="2">
         <v>3606.59</v>
@@ -2423,13 +2465,13 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2">
         <v>1282.41</v>
@@ -2438,7 +2480,7 @@
         <v>7.73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2">
         <v>9913.03</v>
@@ -2449,13 +2491,13 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2">
         <v>29.2</v>
@@ -2464,7 +2506,7 @@
         <v>105.64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H11" s="2">
         <v>123387.52</v>
@@ -2475,13 +2517,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2">
         <v>227.33</v>
@@ -2490,7 +2532,7 @@
         <v>73.08</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H12" s="2">
         <v>16613.28</v>
@@ -2501,13 +2543,13 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2">
         <v>1278.65</v>
@@ -2516,7 +2558,7 @@
         <v>7.73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H13" s="2">
         <v>9883.96</v>
@@ -2527,13 +2569,13 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2">
         <v>457.91</v>
@@ -2542,7 +2584,7 @@
         <v>7.73</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H14" s="2">
         <v>3539.64</v>
@@ -2553,13 +2595,13 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="2">
         <v>48.22</v>
@@ -2568,7 +2610,7 @@
         <v>73.08</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2">
         <v>3523.92</v>
@@ -2589,22 +2631,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2615,7 +2657,7 @@
         <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>6000</v>
@@ -2624,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
@@ -2638,7 +2680,7 @@
         <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
         <v>4462</v>
@@ -2647,7 +2689,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2661,7 +2703,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>7199</v>
@@ -2670,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>124</v>
@@ -2684,7 +2726,7 @@
         <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>43000</v>
@@ -2693,7 +2735,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2716,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2730,7 +2772,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2739,7 +2781,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2753,7 +2795,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>1000</v>
@@ -2762,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2776,7 +2818,7 @@
         <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>5000</v>
@@ -2785,7 +2827,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2799,7 +2841,7 @@
         <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>3040</v>
@@ -2808,7 +2850,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2845,7 +2887,7 @@
         <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>123</v>
@@ -2892,7 +2934,7 @@
         <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>147</v>
@@ -2909,7 +2951,7 @@
         <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>148</v>
@@ -2926,7 +2968,7 @@
         <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>149</v>
@@ -2943,7 +2985,7 @@
         <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>150</v>
@@ -2960,7 +3002,7 @@
         <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>151</v>
@@ -2977,7 +3019,7 @@
         <v>140</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>152</v>
@@ -2994,7 +3036,7 @@
         <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>153</v>
@@ -3011,7 +3053,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>154</v>
@@ -3045,7 +3087,7 @@
         <v>142</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>156</v>
@@ -3062,7 +3104,7 @@
         <v>143</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>157</v>
@@ -3079,7 +3121,7 @@
         <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>158</v>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -66,10 +66,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市樹林區山佳段05670000地號</t>
-  </si>
-  <si>
-    <t>10000分之162</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>新北市樹林區山佳段01069000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>洪佳君</t>
@@ -81,7 +87,151 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>land</t>
+    <t>新北市樹林區中山路</t>
+  </si>
+  <si>
+    <t>100年01月14曰</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>97年06月26曰</t>
+  </si>
+  <si>
+    <t>中華</t>
+  </si>
+  <si>
+    <t>99年09月17日</t>
+  </si>
+  <si>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
+  </si>
+  <si>
+    <t>新臺幣總額或折合新臺幣總額</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>花旗（台灣）銀行樹林分行</t>
+  </si>
+  <si>
+    <t>樹林鎮前街郵局(第85支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部復興分部</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>樹林大同郵局（第90支局）</t>
+  </si>
+  <si>
+    <t>樹林大同郵局（第90变局）</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期篩蓄存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款.</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>黃志雄</t>
+  </si>
+  <si>
+    <t>黃〇誼</t>
+  </si>
+  <si>
+    <t>黃〇瀚</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>華麥電子股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣光罩股份有限公司</t>
+  </si>
+  <si>
+    <t>大同股份有限公司</t>
+  </si>
+  <si>
+    <t>友達光電股份有限公司</t>
+  </si>
+  <si>
+    <t>春雨開發股份有限公司(原正華）</t>
+  </si>
+  <si>
+    <t>茂德科技股份有限公司.</t>
+  </si>
+  <si>
+    <t>金橋科技股份有限公司</t>
+  </si>
+  <si>
+    <t>太平洋電線電纜股份有限公司</t>
+  </si>
+  <si>
+    <t>中華映管股份有限公司</t>
+  </si>
+  <si>
+    <t>新世紀光電股份有限公司</t>
+  </si>
+  <si>
+    <t>大成長城企業股份有限公司</t>
+  </si>
+  <si>
+    <t>寅志雄</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -90,228 +240,15 @@
     <t>2011-12-21</t>
   </si>
   <si>
-    <t>黃志雄</t>
-  </si>
-  <si>
     <t>tmp51f51</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市樹林區山佳段01069000建號</t>
-  </si>
-  <si>
-    <t>新北市樹林區中山路</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>100年01月14曰</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>中華</t>
-  </si>
-  <si>
-    <t>97年06月26曰</t>
-  </si>
-  <si>
-    <t>99年09月17日</t>
-  </si>
-  <si>
-    <t>塑式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣）銀行樹林分行</t>
-  </si>
-  <si>
-    <t>樹林鎮前街郵局(第85支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部復興分部</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>樹林大同郵局（第90支局）</t>
-  </si>
-  <si>
-    <t>樹林大同郵局（第90变局）</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期篩蓄存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款.</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>黃〇誼</t>
-  </si>
-  <si>
-    <t>黃〇瀚</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>太举洋電線電纜股份有限公司</t>
-  </si>
-  <si>
-    <t>華麥電子股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣光罩股份有限公司</t>
-  </si>
-  <si>
-    <t>大同股份有限公司</t>
-  </si>
-  <si>
-    <t>友達光電股份有限公司</t>
-  </si>
-  <si>
-    <t>春雨開發股份有限公司(原正華）</t>
-  </si>
-  <si>
-    <t>茂德科技股份有限公司.</t>
-  </si>
-  <si>
-    <t>金橋科技股份有限公司</t>
-  </si>
-  <si>
-    <t>太平洋電線電纜股份有限公司</t>
-  </si>
-  <si>
-    <t>中華映管股份有限公司</t>
-  </si>
-  <si>
-    <t>新世紀光電股份有限公司</t>
-  </si>
-  <si>
-    <t>大成長城企業股份有限公司</t>
-  </si>
-  <si>
-    <t>寅志雄</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>德盛錄能趨勢</t>
   </si>
   <si>
+    <t>8220174中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
     <t>寶來卓越50</t>
   </si>
   <si>
@@ -333,18 +270,12 @@
     <t>天達策略股票</t>
   </si>
   <si>
-    <t>8220174中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
     <t>8220174中國信託商業銀行板</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>鐯德</t>
   </si>
   <si>
@@ -402,21 +333,15 @@
     <t>額</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要森人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>南山伴我一生變額壽險</t>
+  </si>
+  <si>
+    <t>保險期間：94年12月31曰一165年12月31曰保險費繳交方式及金額年繳60000</t>
+  </si>
+  <si>
     <t>中泰人壽</t>
   </si>
   <si>
@@ -432,9 +357,6 @@
     <t>新光人壽</t>
   </si>
   <si>
-    <t>南山伴我一生變額壽險</t>
-  </si>
-  <si>
     <t>南山好吉利21年期還本養老保險</t>
   </si>
   <si>
@@ -463,9 +385,6 @@
   </si>
   <si>
     <t>貝志雄</t>
-  </si>
-  <si>
-    <t>保險期間：94年12月31曰一165年12月31曰保險費繳交方式及金額年繳60000</t>
   </si>
   <si>
     <t>保險期間：88年3月15日—109年3月15日保險費缴交方式及金額：年繳28920</t>
@@ -860,13 +779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,51 +828,10 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>1518.27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>647200</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1366</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -964,7 +842,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,102 +850,76 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>109.85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5232800</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
-        <v>109.85</v>
+        <v>307.8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2">
-        <v>5232800</v>
+        <v>208700</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="2">
-        <v>307.8</v>
+        <v>294.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2">
-        <v>208700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2">
-        <v>294.5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2">
         <v>223400</v>
       </c>
     </row>
@@ -1078,7 +930,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1086,67 +938,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>505000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>1497</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1198</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2">
         <v>389100</v>
       </c>
     </row>
@@ -1157,41 +986,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1209,428 +1021,405 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>237292</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>237292</v>
+        <v>92785</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>92785</v>
+        <v>470859</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>470859</v>
+        <v>1153136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1153136</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>85</v>
+        <v>19353</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>19353</v>
+        <v>331482</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>331482</v>
+        <v>309167</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
       <c r="G9" s="2">
-        <v>309167</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2">
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>3010</v>
+        <v>6293541</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>6293541</v>
+        <v>1818400</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>1818400</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>5767</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>14</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.36</v>
+      </c>
       <c r="G15" s="2">
-        <v>772</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2">
-        <v>0.36</v>
+        <v>129.18</v>
       </c>
       <c r="G16" s="2">
-        <v>10.84</v>
+        <v>3875.4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>129.18</v>
+        <v>19013.34</v>
       </c>
       <c r="G17" s="2">
-        <v>3875.4</v>
+        <v>570400.2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <v>19013.34</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>570400.2</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>37420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>63</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
         <v>30298</v>
       </c>
     </row>
@@ -1641,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1655,16 +1444,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1690,529 +1479,485 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>247</v>
+        <v>14253</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
-        <v>2470</v>
+        <v>142530</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2">
         <v>1366</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
-        <v>14253</v>
+        <v>8500</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
-        <v>142530</v>
+        <v>85000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2">
         <v>1366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
-        <v>8500</v>
+        <v>5670</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
-        <v>85000</v>
+        <v>56700</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2">
         <v>1366</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
-        <v>5670</v>
+        <v>40000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>56700</v>
+        <v>400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2">
         <v>1366</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
-        <v>40000</v>
+        <v>1077</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
-        <v>400000</v>
+        <v>10770</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2">
         <v>1366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2">
-        <v>1077</v>
+        <v>487</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
-        <v>10770</v>
+        <v>4870</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L7" s="2">
         <v>1366</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N7" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2">
-        <v>487</v>
+        <v>13132</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
-        <v>4870</v>
+        <v>131320</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2">
         <v>1366</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N8" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>13132</v>
+        <v>102000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>131320</v>
+        <v>1020000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L9" s="2">
         <v>1366</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N9" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>102000</v>
+        <v>2758</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2">
-        <v>1020000</v>
+        <v>27580</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L10" s="2">
         <v>1366</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N10" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>2758</v>
+        <v>11000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2">
-        <v>27580</v>
+        <v>110000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L11" s="2">
         <v>1366</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N11" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11000</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L12" s="2">
         <v>1366</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N12" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>81</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="2">
-        <v>200000</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1366</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="2">
         <v>81</v>
       </c>
     </row>
@@ -2223,7 +1968,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2231,117 +1976,117 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
+      </c>
+      <c r="E1" s="1">
+        <v>28105.7</v>
+      </c>
+      <c r="F1" s="1">
+        <v>8.49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="H1" s="1">
+        <v>238617.39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
-        <v>28105.7</v>
+        <v>4913</v>
       </c>
       <c r="F2" s="2">
-        <v>8.49</v>
+        <v>60.5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2">
-        <v>238617.39</v>
+        <v>297236.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
-        <v>4913</v>
+        <v>1665.1</v>
       </c>
       <c r="F3" s="2">
         <v>60.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2">
-        <v>297236.5</v>
+        <v>100738.55</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
-        <v>1665.1</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
-        <v>60.5</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2">
-        <v>100738.55</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2350,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2">
         <v>15000</v>
@@ -2358,261 +2103,235 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>1305.8</v>
       </c>
       <c r="F6" s="2">
-        <v>10</v>
+        <v>11.39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2">
-        <v>15000</v>
+        <v>446340.59</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2">
-        <v>1305.8</v>
+        <v>1235.125</v>
       </c>
       <c r="F7" s="2">
         <v>11.39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H7" s="2">
-        <v>446340.59</v>
+        <v>422182.89</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2">
-        <v>1235.125</v>
+        <v>166.74</v>
       </c>
       <c r="F8" s="2">
-        <v>11.39</v>
+        <v>21.63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2">
-        <v>422182.89</v>
+        <v>3606.59</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2">
-        <v>166.74</v>
+        <v>1282.41</v>
       </c>
       <c r="F9" s="2">
-        <v>21.63</v>
+        <v>7.73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2">
-        <v>3606.59</v>
+        <v>9913.03</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2">
-        <v>1282.41</v>
+        <v>29.2</v>
       </c>
       <c r="F10" s="2">
-        <v>7.73</v>
+        <v>105.64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2">
-        <v>9913.03</v>
+        <v>123387.52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2">
-        <v>29.2</v>
+        <v>227.33</v>
       </c>
       <c r="F11" s="2">
-        <v>105.64</v>
+        <v>73.08</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2">
-        <v>123387.52</v>
+        <v>16613.28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2">
-        <v>227.33</v>
+        <v>1278.65</v>
       </c>
       <c r="F12" s="2">
-        <v>73.08</v>
+        <v>7.73</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2">
-        <v>16613.28</v>
+        <v>9883.96</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2">
-        <v>1278.65</v>
+        <v>457.91</v>
       </c>
       <c r="F13" s="2">
         <v>7.73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2">
-        <v>9883.96</v>
+        <v>3539.64</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2">
-        <v>457.91</v>
+        <v>48.22</v>
       </c>
       <c r="F14" s="2">
-        <v>7.73</v>
+        <v>73.08</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H14" s="2">
-        <v>3539.64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>106</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="2">
-        <v>48.22</v>
-      </c>
-      <c r="F15" s="2">
-        <v>73.08</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="2">
         <v>3523.92</v>
       </c>
     </row>
@@ -2623,7 +2342,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2631,125 +2350,125 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>50</v>
+      </c>
+      <c r="D1" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="G1" s="1">
+        <v>60000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>6000</v>
+        <v>4462</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
-        <v>60000</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
-        <v>4462</v>
+        <v>7199</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44620</v>
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
-        <v>7199</v>
+        <v>43000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>34</v>
+      </c>
+      <c r="G4" s="2">
+        <v>430000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2">
-        <v>43000</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>430000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2758,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2766,13 +2485,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2781,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2789,111 +2508,88 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
-        <v>5000</v>
+        <v>3040</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>50000</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3040</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="2">
-        <v>30400</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>126</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>125</v>
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2903,7 +2599,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2911,237 +2607,220 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>145</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -72,24 +72,45 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市樹林區山佳段05670000地號</t>
+  </si>
+  <si>
+    <t>10000分之162</t>
+  </si>
+  <si>
+    <t>洪佳君</t>
+  </si>
+  <si>
+    <t>97年04月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-21</t>
+  </si>
+  <si>
+    <t>黃志雄</t>
+  </si>
+  <si>
+    <t>tmp51f51</t>
+  </si>
+  <si>
     <t>新北市樹林區山佳段01069000建號</t>
   </si>
   <si>
+    <t>新北市樹林區中山路</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>洪佳君</t>
-  </si>
-  <si>
-    <t>97年04月09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>新北市樹林區中山路</t>
-  </si>
-  <si>
     <t>100年01月14曰</t>
   </si>
   <si>
@@ -174,9 +195,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>黃志雄</t>
-  </si>
-  <si>
     <t>黃〇誼</t>
   </si>
   <si>
@@ -192,6 +210,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>太举洋電線電纜股份有限公司</t>
+  </si>
+  <si>
     <t>華麥電子股份有限公司</t>
   </si>
   <si>
@@ -232,15 +253,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-12-21</t>
-  </si>
-  <si>
-    <t>tmp51f51</t>
   </si>
   <si>
     <t>德盛錄能趨勢</t>
@@ -779,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,6 +845,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1518.27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>647200</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0162</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>24.595974</v>
       </c>
     </row>
   </sheetData>
@@ -842,85 +907,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>109.85</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H2" s="2">
         <v>5232800</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>109.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>21</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
         <v>307.8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2">
+        <v>208700</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2">
-        <v>208700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>307.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>294.5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>223400</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>294.5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2">
-        <v>223400</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +1129,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -938,7 +1137,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1">
         <v>1497</v>
@@ -947,7 +1146,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -958,24 +1157,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>1198</v>
+        <v>1497</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2">
+        <v>505000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1198</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
         <v>389100</v>
       </c>
     </row>
@@ -986,24 +1208,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1252,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1021,13 +1260,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1039,387 +1278,408 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>92785</v>
+        <v>237292</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>470859</v>
+        <v>92785</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1153136</v>
+        <v>470859</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>85</v>
+        <v>1153136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>19353</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>331482</v>
+        <v>19353</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>309167</v>
+        <v>331482</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2">
-        <v>100</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>3010</v>
+        <v>309167</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
       <c r="G10" s="2">
-        <v>6293541</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>1818400</v>
+        <v>6293541</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>5767</v>
+        <v>1818400</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>14</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>772</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>10.84</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
-        <v>129.18</v>
+        <v>0.36</v>
       </c>
       <c r="G16" s="2">
-        <v>3875.4</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>19013.34</v>
+        <v>129.18</v>
       </c>
       <c r="G17" s="2">
-        <v>570400.2</v>
+        <v>3875.4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>19013.34</v>
+      </c>
       <c r="G18" s="2">
-        <v>37420</v>
+        <v>570400.2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
+        <v>37420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
         <v>30298</v>
       </c>
     </row>
@@ -1430,7 +1690,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1444,13 +1704,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1479,485 +1739,529 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>14253</v>
+        <v>247</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
-        <v>142530</v>
+        <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1366</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>8500</v>
+        <v>14253</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
-        <v>85000</v>
+        <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1366</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>5670</v>
+        <v>8500</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>56700</v>
+        <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1366</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
         <v>72</v>
-      </c>
-      <c r="N4" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>40000</v>
+        <v>5670</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
-        <v>400000</v>
+        <v>56700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1366</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>1077</v>
+        <v>40000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
-        <v>10770</v>
+        <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1366</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>487</v>
+        <v>1077</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
-        <v>4870</v>
+        <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1366</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2">
-        <v>13132</v>
+        <v>487</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
-        <v>131320</v>
+        <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1366</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>102000</v>
+        <v>13132</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
-        <v>1020000</v>
+        <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1366</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>2758</v>
+        <v>102000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
-        <v>27580</v>
+        <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1366</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>11000</v>
+        <v>2758</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
-        <v>110000</v>
+        <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>1366</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
+      <c r="D12" s="2">
+        <v>11000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
-        <v>200000</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <v>1366</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="N12" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>81</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="2">
         <v>81</v>
       </c>
     </row>
@@ -1968,7 +2272,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1976,13 +2280,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1">
         <v>28105.7</v>
@@ -1991,7 +2295,7 @@
         <v>8.49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1">
         <v>238617.39</v>
@@ -1999,94 +2303,94 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
-        <v>4913</v>
+        <v>28105.7</v>
       </c>
       <c r="F2" s="2">
-        <v>60.5</v>
+        <v>8.49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2">
-        <v>297236.5</v>
+        <v>238617.39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
-        <v>1665.1</v>
+        <v>4913</v>
       </c>
       <c r="F3" s="2">
         <v>60.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2">
-        <v>100738.55</v>
+        <v>297236.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <v>1665.1</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>60.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2">
-        <v>15000</v>
+        <v>100738.55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2095,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2">
         <v>15000</v>
@@ -2103,235 +2407,261 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2">
         <v>50</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1305.8</v>
-      </c>
       <c r="F6" s="2">
-        <v>11.39</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
-        <v>446340.59</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2">
-        <v>1235.125</v>
+        <v>1305.8</v>
       </c>
       <c r="F7" s="2">
         <v>11.39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2">
-        <v>422182.89</v>
+        <v>446340.59</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E8" s="2">
-        <v>166.74</v>
+        <v>1235.125</v>
       </c>
       <c r="F8" s="2">
-        <v>21.63</v>
+        <v>11.39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2">
-        <v>3606.59</v>
+        <v>422182.89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
-        <v>1282.41</v>
+        <v>166.74</v>
       </c>
       <c r="F9" s="2">
-        <v>7.73</v>
+        <v>21.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2">
-        <v>9913.03</v>
+        <v>3606.59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2">
-        <v>29.2</v>
+        <v>1282.41</v>
       </c>
       <c r="F10" s="2">
-        <v>105.64</v>
+        <v>7.73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="H10" s="2">
-        <v>123387.52</v>
+        <v>9913.03</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2">
-        <v>227.33</v>
+        <v>29.2</v>
       </c>
       <c r="F11" s="2">
-        <v>73.08</v>
+        <v>105.64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2">
-        <v>16613.28</v>
+        <v>123387.52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2">
-        <v>1278.65</v>
+        <v>227.33</v>
       </c>
       <c r="F12" s="2">
-        <v>7.73</v>
+        <v>73.08</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2">
-        <v>9883.96</v>
+        <v>16613.28</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2">
-        <v>457.91</v>
+        <v>1278.65</v>
       </c>
       <c r="F13" s="2">
         <v>7.73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2">
-        <v>3539.64</v>
+        <v>9883.96</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
+        <v>105</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2">
+        <v>457.91</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7.73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3539.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>106</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2">
         <v>48.22</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>73.08</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2">
         <v>3523.92</v>
       </c>
     </row>
@@ -2342,7 +2672,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,10 +2680,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1">
         <v>6000</v>
@@ -2362,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
@@ -2370,105 +2700,105 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>4462</v>
+        <v>6000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
-        <v>44620</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
-        <v>7199</v>
+        <v>4462</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44620</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>43000</v>
+        <v>7199</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2">
-        <v>430000</v>
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>1000</v>
+        <v>43000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
-        <v>10000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2477,7 +2807,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2485,13 +2815,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>1000</v>
@@ -2500,7 +2830,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2508,88 +2838,111 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>3040</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
-        <v>30400</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3040</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2">
+        <v>30400</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>126</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2952,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2607,220 +2960,237 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
+        <v>144</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
         <v>145</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>132</v>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -117,13 +117,16 @@
     <t>繼承</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>Toyota</t>
   </si>
   <si>
+    <t>中華</t>
+  </si>
+  <si>
     <t>97年06月26曰</t>
-  </si>
-  <si>
-    <t>中華</t>
   </si>
   <si>
     <t>99年09月17日</t>
@@ -1129,38 +1132,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
-        <v>1497</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
@@ -1169,7 +1193,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -1177,8 +1201,29 @@
       <c r="G2" s="2">
         <v>505000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>33</v>
       </c>
@@ -1192,13 +1237,34 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>389100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1216,16 +1282,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1233,16 +1299,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1260,13 +1326,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1281,13 +1347,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1302,13 +1368,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1323,13 +1389,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1344,13 +1410,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1365,13 +1431,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1386,13 +1452,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1407,13 +1473,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1428,13 +1494,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1449,13 +1515,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1472,13 +1538,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1493,13 +1559,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1514,13 +1580,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -1535,13 +1601,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1556,13 +1622,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -1577,13 +1643,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -1600,13 +1666,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1623,13 +1689,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1646,16 +1712,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1667,16 +1733,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1704,13 +1770,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1742,7 +1808,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1754,13 +1820,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1786,7 +1852,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1798,13 +1864,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1830,7 +1896,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1842,13 +1908,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1874,7 +1940,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1886,13 +1952,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>56700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1918,7 +1984,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1930,13 +1996,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1962,7 +2028,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1974,13 +2040,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -2006,10 +2072,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2">
         <v>487</v>
@@ -2018,13 +2084,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -2050,7 +2116,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2062,13 +2128,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2094,7 +2160,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2106,13 +2172,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2138,7 +2204,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2150,13 +2216,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2182,7 +2248,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2194,13 +2260,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2">
         <v>110000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2226,25 +2292,25 @@
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2280,13 +2346,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>28105.7</v>
@@ -2295,7 +2361,7 @@
         <v>8.49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1">
         <v>238617.39</v>
@@ -2306,13 +2372,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>28105.7</v>
@@ -2321,7 +2387,7 @@
         <v>8.49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2">
         <v>238617.39</v>
@@ -2332,13 +2398,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>4913</v>
@@ -2347,7 +2413,7 @@
         <v>60.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2">
         <v>297236.5</v>
@@ -2358,13 +2424,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>1665.1</v>
@@ -2373,7 +2439,7 @@
         <v>60.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2">
         <v>100738.55</v>
@@ -2384,13 +2450,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2399,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2">
         <v>15000</v>
@@ -2410,13 +2476,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2425,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2">
         <v>15000</v>
@@ -2436,13 +2502,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2">
         <v>1305.8</v>
@@ -2451,7 +2517,7 @@
         <v>11.39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="2">
         <v>446340.59</v>
@@ -2462,13 +2528,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2">
         <v>1235.125</v>
@@ -2477,7 +2543,7 @@
         <v>11.39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" s="2">
         <v>422182.89</v>
@@ -2488,13 +2554,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2">
         <v>166.74</v>
@@ -2503,7 +2569,7 @@
         <v>21.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2">
         <v>3606.59</v>
@@ -2514,13 +2580,13 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2">
         <v>1282.41</v>
@@ -2529,7 +2595,7 @@
         <v>7.73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2">
         <v>9913.03</v>
@@ -2540,13 +2606,13 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2">
         <v>29.2</v>
@@ -2555,7 +2621,7 @@
         <v>105.64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" s="2">
         <v>123387.52</v>
@@ -2566,13 +2632,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2">
         <v>227.33</v>
@@ -2581,7 +2647,7 @@
         <v>73.08</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2">
         <v>16613.28</v>
@@ -2592,13 +2658,13 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2">
         <v>1278.65</v>
@@ -2607,7 +2673,7 @@
         <v>7.73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2">
         <v>9883.96</v>
@@ -2618,13 +2684,13 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2">
         <v>457.91</v>
@@ -2633,7 +2699,7 @@
         <v>7.73</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" s="2">
         <v>3539.64</v>
@@ -2644,13 +2710,13 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2">
         <v>48.22</v>
@@ -2659,7 +2725,7 @@
         <v>73.08</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" s="2">
         <v>3523.92</v>
@@ -2680,7 +2746,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -2692,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
@@ -2703,7 +2769,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -2715,7 +2781,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
@@ -2726,7 +2792,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2738,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2749,7 +2815,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2761,10 +2827,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2772,7 +2838,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2784,7 +2850,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2795,10 +2861,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2807,7 +2873,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2818,7 +2884,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2830,7 +2896,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2841,7 +2907,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2853,7 +2919,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2864,7 +2930,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2876,7 +2942,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2887,7 +2953,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2899,7 +2965,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2910,14 +2976,14 @@
         <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2927,22 +2993,22 @@
         <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2960,16 +3026,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2977,16 +3043,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2994,16 +3060,16 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3011,16 +3077,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3028,16 +3094,16 @@
         <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3045,16 +3111,16 @@
         <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3062,16 +3128,16 @@
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3079,16 +3145,16 @@
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3096,16 +3162,16 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3113,16 +3179,16 @@
         <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3130,16 +3196,16 @@
         <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3147,16 +3213,16 @@
         <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3164,16 +3230,16 @@
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3181,16 +3247,16 @@
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -10,19 +10,18 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="航空器" sheetId="4" r:id="rId4"/>
-    <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="股票" sheetId="6" r:id="rId6"/>
-    <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
-    <sheet name="其他有價證券" sheetId="8" r:id="rId8"/>
-    <sheet name="保險" sheetId="9" r:id="rId9"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
+    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -117,6 +116,9 @@
     <t>繼承</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -132,211 +134,205 @@
     <t>99年09月17日</t>
   </si>
   <si>
-    <t>幣別</t>
+    <t>car</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>花旗（台灣）銀行樹林分行</t>
+  </si>
+  <si>
+    <t>樹林鎮前街郵局(第85支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部復興分部</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>樹林大同郵局（第90支局）</t>
+  </si>
+  <si>
+    <t>樹林大同郵局（第90变局）</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期篩蓄存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款.</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>黃〇誼</t>
+  </si>
+  <si>
+    <t>黃〇瀚</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>太举洋電線電纜股份有限公司</t>
+  </si>
+  <si>
+    <t>華麥電子股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣光罩股份有限公司</t>
+  </si>
+  <si>
+    <t>大同股份有限公司</t>
+  </si>
+  <si>
+    <t>友達光電股份有限公司</t>
+  </si>
+  <si>
+    <t>春雨開發股份有限公司(原正華）</t>
+  </si>
+  <si>
+    <t>茂德科技股份有限公司.</t>
+  </si>
+  <si>
+    <t>金橋科技股份有限公司</t>
+  </si>
+  <si>
+    <t>太平洋電線電纜股份有限公司</t>
+  </si>
+  <si>
+    <t>中華映管股份有限公司</t>
+  </si>
+  <si>
+    <t>新世紀光電股份有限公司</t>
+  </si>
+  <si>
+    <t>大成長城企業股份有限公司</t>
+  </si>
+  <si>
+    <t>寅志雄</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>德盛錄能趨勢</t>
+  </si>
+  <si>
+    <t>8220174中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>寶來卓越50</t>
+  </si>
+  <si>
+    <t>雷曼兄弟</t>
+  </si>
+  <si>
+    <t>坦全一穩定月收</t>
+  </si>
+  <si>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>貝萊德新能源美元</t>
+  </si>
+  <si>
+    <t>貝萊德新興歐洲歐元</t>
+  </si>
+  <si>
+    <t>天達策略股票</t>
+  </si>
+  <si>
+    <t>8220174中國信託商業銀行板</t>
+  </si>
+  <si>
+    <t>歐元</t>
+  </si>
+  <si>
+    <t>鐯德</t>
+  </si>
+  <si>
+    <t>奈普</t>
+  </si>
+  <si>
+    <t>唯訊</t>
+  </si>
+  <si>
+    <t>友達</t>
+  </si>
+  <si>
+    <t>加福特</t>
+  </si>
+  <si>
+    <t>亞太數位</t>
+  </si>
+  <si>
+    <t>水美</t>
+  </si>
+  <si>
+    <t>崇網</t>
+  </si>
+  <si>
+    <t>連邦</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及多</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>頁志雄</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>花旗（台灣）銀行樹林分行</t>
-  </si>
-  <si>
-    <t>樹林鎮前街郵局(第85支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部復興分部</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>樹林大同郵局（第90支局）</t>
-  </si>
-  <si>
-    <t>樹林大同郵局（第90变局）</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期篩蓄存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款.</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>黃〇誼</t>
-  </si>
-  <si>
-    <t>黃〇瀚</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>太举洋電線電纜股份有限公司</t>
-  </si>
-  <si>
-    <t>華麥電子股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣光罩股份有限公司</t>
-  </si>
-  <si>
-    <t>大同股份有限公司</t>
-  </si>
-  <si>
-    <t>友達光電股份有限公司</t>
-  </si>
-  <si>
-    <t>春雨開發股份有限公司(原正華）</t>
-  </si>
-  <si>
-    <t>茂德科技股份有限公司.</t>
-  </si>
-  <si>
-    <t>金橋科技股份有限公司</t>
-  </si>
-  <si>
-    <t>太平洋電線電纜股份有限公司</t>
-  </si>
-  <si>
-    <t>中華映管股份有限公司</t>
-  </si>
-  <si>
-    <t>新世紀光電股份有限公司</t>
-  </si>
-  <si>
-    <t>大成長城企業股份有限公司</t>
-  </si>
-  <si>
-    <t>寅志雄</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>德盛錄能趨勢</t>
-  </si>
-  <si>
-    <t>8220174中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>寶來卓越50</t>
-  </si>
-  <si>
-    <t>雷曼兄弟</t>
-  </si>
-  <si>
-    <t>坦全一穩定月收</t>
-  </si>
-  <si>
-    <t>富達新興市場基金</t>
-  </si>
-  <si>
-    <t>貝萊德新能源美元</t>
-  </si>
-  <si>
-    <t>貝萊德新興歐洲歐元</t>
-  </si>
-  <si>
-    <t>天達策略股票</t>
-  </si>
-  <si>
-    <t>8220174中國信託商業銀行板</t>
-  </si>
-  <si>
-    <t>歐元</t>
-  </si>
-  <si>
-    <t>鐯德</t>
-  </si>
-  <si>
-    <t>奈普</t>
-  </si>
-  <si>
-    <t>唯訊</t>
-  </si>
-  <si>
-    <t>友達</t>
-  </si>
-  <si>
-    <t>加福特</t>
-  </si>
-  <si>
-    <t>亞太數位</t>
-  </si>
-  <si>
-    <t>水美</t>
-  </si>
-  <si>
-    <t>崇網</t>
-  </si>
-  <si>
-    <t>連邦</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及多</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>頁志雄</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -992,7 +988,7 @@
         <v>5232800</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
@@ -1045,7 +1041,7 @@
         <v>208700</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>22</v>
@@ -1098,7 +1094,7 @@
         <v>223400</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>22</v>
@@ -1143,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1184,7 +1180,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>1497</v>
@@ -1193,7 +1189,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -1202,7 +1198,7 @@
         <v>505000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1228,7 +1224,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>1198</v>
@@ -1237,7 +1233,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -1246,7 +1242,7 @@
         <v>389100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1273,50 +1269,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -1326,13 +1278,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1347,13 +1299,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1368,13 +1320,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1389,13 +1341,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1410,13 +1362,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1431,13 +1383,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1452,13 +1404,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1473,13 +1425,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1494,13 +1446,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1515,13 +1467,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -1538,13 +1490,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1559,13 +1511,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1580,13 +1532,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
@@ -1601,13 +1553,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -1622,13 +1574,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
@@ -1643,13 +1595,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -1666,13 +1618,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1689,13 +1641,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1712,16 +1664,16 @@
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1733,16 +1685,16 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1754,7 +1706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -1770,13 +1722,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1808,7 +1760,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1820,13 +1772,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1852,7 +1804,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1864,13 +1816,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1896,7 +1848,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1908,13 +1860,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1940,7 +1892,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1952,13 +1904,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>56700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1984,7 +1936,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1996,13 +1948,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -2028,7 +1980,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2040,13 +1992,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -2072,10 +2024,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2">
         <v>487</v>
@@ -2084,13 +2036,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -2116,7 +2068,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2128,13 +2080,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2160,7 +2112,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2172,13 +2124,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2204,7 +2156,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2216,13 +2168,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2248,7 +2200,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2260,13 +2212,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
         <v>110000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2292,25 +2244,25 @@
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2336,7 +2288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -2346,13 +2298,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>28105.7</v>
@@ -2361,7 +2313,7 @@
         <v>8.49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1">
         <v>238617.39</v>
@@ -2372,13 +2324,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>28105.7</v>
@@ -2387,7 +2339,7 @@
         <v>8.49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <v>238617.39</v>
@@ -2398,13 +2350,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>4913</v>
@@ -2413,7 +2365,7 @@
         <v>60.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2">
         <v>297236.5</v>
@@ -2424,13 +2376,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>1665.1</v>
@@ -2439,7 +2391,7 @@
         <v>60.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <v>100738.55</v>
@@ -2450,13 +2402,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2465,7 +2417,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2">
         <v>15000</v>
@@ -2476,13 +2428,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2491,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2">
         <v>15000</v>
@@ -2502,13 +2454,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2">
         <v>1305.8</v>
@@ -2517,7 +2469,7 @@
         <v>11.39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>446340.59</v>
@@ -2528,13 +2480,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2">
         <v>1235.125</v>
@@ -2543,7 +2495,7 @@
         <v>11.39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
         <v>422182.89</v>
@@ -2554,13 +2506,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2">
         <v>166.74</v>
@@ -2569,7 +2521,7 @@
         <v>21.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2">
         <v>3606.59</v>
@@ -2580,13 +2532,13 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2">
         <v>1282.41</v>
@@ -2595,7 +2547,7 @@
         <v>7.73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2">
         <v>9913.03</v>
@@ -2606,13 +2558,13 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2">
         <v>29.2</v>
@@ -2621,7 +2573,7 @@
         <v>105.64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H11" s="2">
         <v>123387.52</v>
@@ -2632,13 +2584,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2">
         <v>227.33</v>
@@ -2647,7 +2599,7 @@
         <v>73.08</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2">
         <v>16613.28</v>
@@ -2658,13 +2610,13 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2">
         <v>1278.65</v>
@@ -2673,7 +2625,7 @@
         <v>7.73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2">
         <v>9883.96</v>
@@ -2684,13 +2636,13 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2">
         <v>457.91</v>
@@ -2699,7 +2651,7 @@
         <v>7.73</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2">
         <v>3539.64</v>
@@ -2710,13 +2662,13 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2">
         <v>48.22</v>
@@ -2725,7 +2677,7 @@
         <v>73.08</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2">
         <v>3523.92</v>
@@ -2736,7 +2688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -2746,7 +2698,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -2758,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
@@ -2769,7 +2721,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -2781,7 +2733,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
@@ -2792,7 +2744,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2804,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2815,7 +2767,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2827,10 +2779,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2838,7 +2790,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2850,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2861,10 +2813,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2873,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2884,7 +2836,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2896,7 +2848,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2907,7 +2859,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2919,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2930,7 +2882,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2942,7 +2894,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2953,7 +2905,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2965,7 +2917,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2976,14 +2928,14 @@
         <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2993,22 +2945,22 @@
         <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +2968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -3026,16 +2978,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3043,16 +2995,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3060,16 +3012,16 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3077,16 +3029,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3094,16 +3046,16 @@
         <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3111,16 +3063,16 @@
         <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3128,16 +3080,16 @@
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3145,16 +3097,16 @@
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3162,16 +3114,16 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3179,16 +3131,16 @@
         <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3196,16 +3148,16 @@
         <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3213,16 +3165,16 @@
         <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3230,16 +3182,16 @@
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3247,16 +3199,16 @@
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -137,57 +137,66 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中國信託商業銀行板橋分行</t>
   </si>
   <si>
+    <t>花旗（台灣）銀行樹林分行</t>
+  </si>
+  <si>
+    <t>樹林鎮前街郵局(第85支局）</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部</t>
+  </si>
+  <si>
+    <t>台北縣樹林市農會信用部復興分部</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>樹林大同郵局（第90支局）</t>
+  </si>
+  <si>
+    <t>樹林大同郵局（第90变局）</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期篩蓄存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款.</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>花旗（台灣）銀行樹林分行</t>
-  </si>
-  <si>
-    <t>樹林鎮前街郵局(第85支局）</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部</t>
-  </si>
-  <si>
-    <t>台北縣樹林市農會信用部復興分部</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>樹林大同郵局（第90支局）</t>
-  </si>
-  <si>
-    <t>樹林大同郵局（第90变局）</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期篩蓄存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款.</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -197,13 +206,13 @@
     <t>黃〇瀚</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>太举洋電線電纜股份有限公司</t>
@@ -1270,13 +1279,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1287,418 +1296,810 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>237292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>237292</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>92785</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>470859</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1153136</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>19353</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>331482</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>309167</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>100</v>
-      </c>
-      <c r="G10" s="2">
         <v>3010</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>6293541</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>1818400</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>5767</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>772</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="G16" s="2">
         <v>10.84</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>129.18</v>
-      </c>
-      <c r="G17" s="2">
         <v>3875.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="2">
-        <v>19013.34</v>
-      </c>
-      <c r="G18" s="2">
         <v>570400.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2">
         <v>37420</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2">
         <v>30298</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1366</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1722,13 +2123,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1760,7 +2161,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1772,13 +2173,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>2470</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1804,7 +2205,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -1816,13 +2217,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2">
         <v>142530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1848,7 +2249,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1860,13 +2261,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>85000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1892,7 +2293,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1904,13 +2305,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>56700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1936,7 +2337,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1948,13 +2349,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>400000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1980,7 +2381,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1992,13 +2393,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>10770</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -2024,10 +2425,10 @@
         <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2">
         <v>487</v>
@@ -2036,13 +2437,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2">
         <v>4870</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -2068,7 +2469,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2080,13 +2481,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2">
         <v>131320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2112,7 +2513,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2124,13 +2525,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2">
         <v>1020000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2156,7 +2557,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2168,13 +2569,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2">
         <v>27580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2200,7 +2601,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2212,13 +2613,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2">
         <v>110000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2244,25 +2645,25 @@
         <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2298,13 +2699,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>28105.7</v>
@@ -2313,7 +2714,7 @@
         <v>8.49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1">
         <v>238617.39</v>
@@ -2324,13 +2725,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>28105.7</v>
@@ -2339,7 +2740,7 @@
         <v>8.49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2">
         <v>238617.39</v>
@@ -2350,13 +2751,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>4913</v>
@@ -2365,7 +2766,7 @@
         <v>60.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2">
         <v>297236.5</v>
@@ -2376,13 +2777,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>1665.1</v>
@@ -2391,7 +2792,7 @@
         <v>60.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2">
         <v>100738.55</v>
@@ -2402,13 +2803,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2417,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>15000</v>
@@ -2428,13 +2829,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2443,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
         <v>15000</v>
@@ -2454,13 +2855,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="2">
         <v>1305.8</v>
@@ -2469,7 +2870,7 @@
         <v>11.39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2">
         <v>446340.59</v>
@@ -2480,13 +2881,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E8" s="2">
         <v>1235.125</v>
@@ -2495,7 +2896,7 @@
         <v>11.39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2">
         <v>422182.89</v>
@@ -2506,13 +2907,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2">
         <v>166.74</v>
@@ -2521,7 +2922,7 @@
         <v>21.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H9" s="2">
         <v>3606.59</v>
@@ -2532,13 +2933,13 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2">
         <v>1282.41</v>
@@ -2547,7 +2948,7 @@
         <v>7.73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2">
         <v>9913.03</v>
@@ -2558,13 +2959,13 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2">
         <v>29.2</v>
@@ -2573,7 +2974,7 @@
         <v>105.64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2">
         <v>123387.52</v>
@@ -2584,13 +2985,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2">
         <v>227.33</v>
@@ -2599,7 +3000,7 @@
         <v>73.08</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2">
         <v>16613.28</v>
@@ -2610,13 +3011,13 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2">
         <v>1278.65</v>
@@ -2625,7 +3026,7 @@
         <v>7.73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2">
         <v>9883.96</v>
@@ -2636,13 +3037,13 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2">
         <v>457.91</v>
@@ -2651,7 +3052,7 @@
         <v>7.73</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H14" s="2">
         <v>3539.64</v>
@@ -2662,13 +3063,13 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2">
         <v>48.22</v>
@@ -2677,7 +3078,7 @@
         <v>73.08</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H15" s="2">
         <v>3523.92</v>
@@ -2698,7 +3099,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -2710,7 +3111,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1">
         <v>60000</v>
@@ -2721,7 +3122,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -2733,7 +3134,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
@@ -2744,7 +3145,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -2756,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2">
         <v>44620</v>
@@ -2767,7 +3168,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -2779,10 +3180,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2790,7 +3191,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -2802,7 +3203,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>430000</v>
@@ -2813,10 +3214,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -2825,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
@@ -2836,7 +3237,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -2848,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>10000</v>
@@ -2859,7 +3260,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -2871,7 +3272,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2">
         <v>10000</v>
@@ -2882,7 +3283,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -2894,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2">
         <v>50000</v>
@@ -2905,7 +3306,7 @@
         <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -2917,7 +3318,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2">
         <v>30400</v>
@@ -2928,14 +3329,14 @@
         <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2945,22 +3346,22 @@
         <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2978,16 +3379,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2995,16 +3396,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3012,16 +3413,16 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3029,16 +3430,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3046,16 +3447,16 @@
         <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3063,16 +3464,16 @@
         <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3080,16 +3481,16 @@
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3097,16 +3498,16 @@
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3114,16 +3515,16 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3131,16 +3532,16 @@
         <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3148,16 +3549,16 @@
         <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3165,16 +3566,16 @@
         <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3182,16 +3583,16 @@
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3199,16 +3600,16 @@
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -260,39 +260,45 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>德盛錄能趨勢</t>
   </si>
   <si>
+    <t>寶來卓越50</t>
+  </si>
+  <si>
+    <t>雷曼兄弟</t>
+  </si>
+  <si>
+    <t>坦全一穩定月收</t>
+  </si>
+  <si>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>貝萊德新能源美元</t>
+  </si>
+  <si>
+    <t>貝萊德新興歐洲歐元</t>
+  </si>
+  <si>
+    <t>天達策略股票</t>
+  </si>
+  <si>
     <t>8220174中國信託商業銀行板橋分行</t>
   </si>
   <si>
-    <t>寶來卓越50</t>
-  </si>
-  <si>
-    <t>雷曼兄弟</t>
-  </si>
-  <si>
-    <t>坦全一穩定月收</t>
-  </si>
-  <si>
-    <t>富達新興市場基金</t>
-  </si>
-  <si>
-    <t>貝萊德新能源美元</t>
-  </si>
-  <si>
-    <t>貝萊德新興歐洲歐元</t>
-  </si>
-  <si>
-    <t>天達策略股票</t>
-  </si>
-  <si>
     <t>8220174中國信託商業銀行板</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>鐯德</t>
   </si>
   <si>
@@ -320,88 +326,61 @@
     <t>連邦</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及多</t>
-  </si>
-  <si>
-    <t>財產種類</t>
+    <t>otherbonds</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>南山伴我一生變額壽險</t>
+  </si>
+  <si>
+    <t>保險期間：94年12月31曰一165年12月31曰保險費繳交方式及金額年繳60000</t>
+  </si>
+  <si>
+    <t>中泰人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
+    <t>南山好吉利21年期還本養老保險</t>
+  </si>
+  <si>
+    <t>南山新新增額養老保險</t>
+  </si>
+  <si>
+    <t>中泰人壽金富貴外幣變額年金保險</t>
+  </si>
+  <si>
+    <t>世界觀外幣變額萬能壽險</t>
+  </si>
+  <si>
+    <t>國泰美滿人生312終身壽險</t>
+  </si>
+  <si>
+    <t>六年吉利保險</t>
+  </si>
+  <si>
+    <t>新光人壽全心终身還本保險</t>
+  </si>
+  <si>
+    <t>新光人壽全意终身還本保險</t>
+  </si>
+  <si>
+    <t>南山人壽鴻利發還本終身分紅保險</t>
   </si>
   <si>
     <t>頁志雄</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>71990</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>南山伴我一生變額壽險</t>
-  </si>
-  <si>
-    <t>保險期間：94年12月31曰一165年12月31曰保險費繳交方式及金額年繳60000</t>
-  </si>
-  <si>
-    <t>中泰人壽</t>
-  </si>
-  <si>
-    <t>安聯人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
-    <t>南山好吉利21年期還本養老保險</t>
-  </si>
-  <si>
-    <t>南山新新增額養老保險</t>
-  </si>
-  <si>
-    <t>中泰人壽金富貴外幣變額年金保險</t>
-  </si>
-  <si>
-    <t>世界觀外幣變額萬能壽險</t>
-  </si>
-  <si>
-    <t>國泰美滿人生312終身壽險</t>
-  </si>
-  <si>
-    <t>六年吉利保險</t>
-  </si>
-  <si>
-    <t>新光人壽全心终身還本保險</t>
-  </si>
-  <si>
-    <t>新光人壽全意终身還本保險</t>
-  </si>
-  <si>
-    <t>南山人壽鴻利發還本終身分紅保險</t>
   </si>
   <si>
     <t>貝志雄</t>
@@ -2691,47 +2670,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1">
-        <v>28105.7</v>
-      </c>
-      <c r="F1" s="1">
-        <v>8.49</v>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1">
-        <v>238617.39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>28105.7</v>
@@ -2745,8 +2745,29 @@
       <c r="H2" s="2">
         <v>238617.39</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>92</v>
       </c>
@@ -2757,7 +2778,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>4913</v>
@@ -2771,8 +2792,29 @@
       <c r="H3" s="2">
         <v>297236.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>93</v>
       </c>
@@ -2783,7 +2825,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>1665.1</v>
@@ -2797,8 +2839,29 @@
       <c r="H4" s="2">
         <v>100738.55</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>94</v>
       </c>
@@ -2809,7 +2872,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>50</v>
@@ -2823,8 +2886,29 @@
       <c r="H5" s="2">
         <v>15000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>95</v>
       </c>
@@ -2835,7 +2919,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>50</v>
@@ -2849,8 +2933,29 @@
       <c r="H6" s="2">
         <v>15000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>98</v>
       </c>
@@ -2861,7 +2966,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2">
         <v>1305.8</v>
@@ -2875,8 +2980,29 @@
       <c r="H7" s="2">
         <v>446340.59</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>99</v>
       </c>
@@ -2887,7 +3013,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2">
         <v>1235.125</v>
@@ -2901,8 +3027,29 @@
       <c r="H8" s="2">
         <v>422182.89</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -2913,7 +3060,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2">
         <v>166.74</v>
@@ -2927,8 +3074,29 @@
       <c r="H9" s="2">
         <v>3606.59</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>101</v>
       </c>
@@ -2939,7 +3107,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
         <v>1282.41</v>
@@ -2953,8 +3121,29 @@
       <c r="H10" s="2">
         <v>9913.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -2965,7 +3154,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2">
         <v>29.2</v>
@@ -2974,13 +3163,34 @@
         <v>105.64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H11" s="2">
         <v>123387.52</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>103</v>
       </c>
@@ -2991,7 +3201,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2">
         <v>227.33</v>
@@ -3005,8 +3215,29 @@
       <c r="H12" s="2">
         <v>16613.28</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>104</v>
       </c>
@@ -3017,7 +3248,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2">
         <v>1278.65</v>
@@ -3031,8 +3262,29 @@
       <c r="H13" s="2">
         <v>9883.96</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>105</v>
       </c>
@@ -3043,7 +3295,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2">
         <v>457.91</v>
@@ -3057,8 +3309,29 @@
       <c r="H14" s="2">
         <v>3539.64</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>106</v>
       </c>
@@ -3069,7 +3342,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2">
         <v>48.22</v>
@@ -3082,6 +3355,27 @@
       </c>
       <c r="H15" s="2">
         <v>3523.92</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1366</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3091,38 +3385,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1">
-        <v>6000</v>
-      </c>
-      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -3139,13 +3454,34 @@
       <c r="G2" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -3162,13 +3498,34 @@
       <c r="G3" s="2">
         <v>44620</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -3182,16 +3539,37 @@
       <c r="F4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2">
+        <v>71990</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -3208,16 +3586,37 @@
       <c r="G5" s="2">
         <v>430000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>1000</v>
@@ -3231,13 +3630,34 @@
       <c r="G6" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -3254,13 +3674,34 @@
       <c r="G7" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -3277,13 +3718,34 @@
       <c r="G8" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -3300,13 +3762,34 @@
       <c r="G9" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
@@ -3323,45 +3806,26 @@
       <c r="G10" s="2">
         <v>30400</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>125</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>126</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>109</v>
+      <c r="H10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3379,16 +3843,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3396,16 +3860,16 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3413,16 +3877,16 @@
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3430,16 +3894,16 @@
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3447,16 +3911,16 @@
         <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3464,16 +3928,16 @@
         <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3481,16 +3945,16 @@
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3498,16 +3962,16 @@
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3515,16 +3979,16 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3532,16 +3996,16 @@
         <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3549,16 +4013,16 @@
         <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3566,16 +4030,16 @@
         <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3583,16 +4047,16 @@
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3600,16 +4064,16 @@
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
+++ b/legislator/property/output/normal/黃志雄_2011-12-21_財產申報表_tmp51f51.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -329,30 +329,30 @@
     <t>otherbonds</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>中泰人壽</t>
+  </si>
+  <si>
+    <t>安聯人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
     <t>南山伴我一生變額壽險</t>
   </si>
   <si>
-    <t>保險期間：94年12月31曰一165年12月31曰保險費繳交方式及金額年繳60000</t>
-  </si>
-  <si>
-    <t>中泰人壽</t>
-  </si>
-  <si>
-    <t>安聯人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
     <t>南山好吉利21年期還本養老保險</t>
   </si>
   <si>
@@ -386,40 +386,7 @@
     <t>貝志雄</t>
   </si>
   <si>
-    <t>保險期間：88年3月15日—109年3月15日保險費缴交方式及金額：年繳28920</t>
-  </si>
-  <si>
-    <t>保險期間：88年3月15曰—108年3月15日Z保險費繳交方式及金額：年繳49350</t>
-  </si>
-  <si>
-    <t>保險期間：88年3月15日—166年3月15日Z保險費繳交方式及金額：年繳51800</t>
-  </si>
-  <si>
-    <t>保險期間：97年12月29曰一175年12月28曰保險費繳交方式及金額：彈性繳20000</t>
-  </si>
-  <si>
-    <t>保險期間：96.年4月3日一177年4月3日保險費缴交方式及金額：彈性繳15000</t>
-  </si>
-  <si>
-    <t>保險期間：84年11月22曰一104年11月22曰保險費繳交方式及金額：半年繳13958</t>
-  </si>
-  <si>
-    <t>保險期間：94年4月20日—100年4月20曰保險費繳交方式及金額：年繳157819</t>
-  </si>
-  <si>
-    <t>保險期間：9*4年5月17日100年5月17日保險費繳交方式及金額：年繳269117</t>
-  </si>
-  <si>
-    <t>保險期間：95年1月2日一101年1月2日Z保險費缴交方式及金額：年繳47491</t>
-  </si>
-  <si>
-    <t>保險期間：97年12月23曰終身保險費繳交方式及金額：年繳121700</t>
-  </si>
-  <si>
-    <t>保險期間：97年12月23曰終身Z保險費繳交方式及金額：年繳125150</t>
-  </si>
-  <si>
-    <t>保險期間：98年5月13日104年5月13日保險費繳交方式及金額：年繳1058100</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -3835,49 +3802,85 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>110</v>
@@ -3888,13 +3891,31 @@
       <c r="E3" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>111</v>
@@ -3903,15 +3924,33 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>110</v>
@@ -3920,15 +3959,33 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>112</v>
@@ -3937,15 +3994,33 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>113</v>
@@ -3954,15 +4029,33 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>114</v>
@@ -3971,15 +4064,33 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>115</v>
@@ -3988,15 +4099,33 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>115</v>
@@ -4005,15 +4134,33 @@
         <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>115</v>
@@ -4022,15 +4169,33 @@
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>116</v>
@@ -4039,15 +4204,33 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>144</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>117</v>
@@ -4056,15 +4239,33 @@
         <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>118</v>
@@ -4073,7 +4274,25 @@
         <v>120</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1366</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
